--- a/Daily/ACF - PACF/First Difference/toyota residuals - values.xlsx
+++ b/Daily/ACF - PACF/First Difference/toyota residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0004435943260133603</v>
+        <v>0.006460170835825342</v>
       </c>
       <c r="C3">
-        <v>-0.0004437660621055153</v>
+        <v>0.006462671869830694</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009400909785011303</v>
+        <v>0.0199174529729385</v>
       </c>
       <c r="C4">
-        <v>0.009407996591489668</v>
+        <v>0.01989194558117336</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.04732310820839918</v>
+        <v>-0.01645190233128803</v>
       </c>
       <c r="C5">
-        <v>-0.04737400547201205</v>
+        <v>-0.01673315708753463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02112356431962422</v>
+        <v>0.009145785858233703</v>
       </c>
       <c r="C6">
-        <v>-0.02131508808516298</v>
+        <v>0.008985747283477549</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.008619810103826694</v>
+        <v>-0.009449169050446052</v>
       </c>
       <c r="C7">
-        <v>-0.007788986611293485</v>
+        <v>-0.008933975402325829</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01446491029978513</v>
+        <v>0.01362498642901729</v>
       </c>
       <c r="C8">
-        <v>0.01267578730014008</v>
+        <v>0.01315711743676287</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01892183488284631</v>
+        <v>-0.001196827029864569</v>
       </c>
       <c r="C9">
-        <v>-0.02086349124025075</v>
+        <v>-0.0007217550127214728</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.02137580439179669</v>
+        <v>0.004020734941190662</v>
       </c>
       <c r="C10">
-        <v>-0.02304062252309664</v>
+        <v>0.003136380458966448</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01754802079340957</v>
+        <v>0.01630946495987484</v>
       </c>
       <c r="C11">
-        <v>0.01894012775848364</v>
+        <v>0.01697824150643201</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.04852043154641645</v>
+        <v>-0.05383692244795166</v>
       </c>
       <c r="C12">
-        <v>-0.04982009709677186</v>
+        <v>-0.05485071294040628</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.05141319610610733</v>
+        <v>-0.04016087165433935</v>
       </c>
       <c r="C13">
-        <v>-0.05514907361606707</v>
+        <v>-0.03996629873507189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.04083839413737986</v>
+        <v>-0.01681481521555858</v>
       </c>
       <c r="C14">
-        <v>-0.04041360830705953</v>
+        <v>-0.01401110262316267</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.005045981344106375</v>
+        <v>0.005565323313598815</v>
       </c>
       <c r="C15">
-        <v>0.00205436998734016</v>
+        <v>0.00540865342180036</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.003347831321659017</v>
+        <v>-0.01341091797704589</v>
       </c>
       <c r="C16">
-        <v>-0.009639106089588862</v>
+        <v>-0.01309423786166758</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0204114553652565</v>
+        <v>0.02316448064347392</v>
       </c>
       <c r="C17">
-        <v>0.01182474304353313</v>
+        <v>0.02214963020307002</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.01674126841665565</v>
+        <v>0.00362898401629055</v>
       </c>
       <c r="C18">
-        <v>-0.01770291463742425</v>
+        <v>0.005201381270190461</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.01075573061505522</v>
+        <v>-0.006220380727802682</v>
       </c>
       <c r="C19">
-        <v>-0.01242740282549929</v>
+        <v>-0.007259708287689477</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.003576198963072994</v>
+        <v>-0.0118603210513041</v>
       </c>
       <c r="C20">
-        <v>-0.006057616439136451</v>
+        <v>-0.01061063194010284</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01210330543750966</v>
+        <v>0.011348243966345</v>
       </c>
       <c r="C21">
-        <v>0.008705488204018029</v>
+        <v>0.01334814574772724</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.001360434644698085</v>
+        <v>0.01523373385587187</v>
       </c>
       <c r="C22">
-        <v>-0.005072777844910268</v>
+        <v>0.01480250376028263</v>
       </c>
     </row>
   </sheetData>
